--- a/Andere bestanden/producten.xlsx
+++ b/Andere bestanden/producten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Schepijs\Andere bestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1639657B-5B2C-4450-B325-C0C4E7A1D7A5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DF7433-4139-410E-A83B-D55200258979}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{3A77AF88-BCF3-4E5C-BEAC-7B47DF590C10}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,15 +23,111 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Smaak</t>
+  </si>
+  <si>
+    <t>Plaatje</t>
+  </si>
+  <si>
+    <t>Prijs</t>
+  </si>
+  <si>
+    <t>Beschrijving</t>
+  </si>
+  <si>
+    <t>Vanille</t>
+  </si>
+  <si>
+    <t>Chocolade</t>
+  </si>
+  <si>
+    <t>Aardbei</t>
+  </si>
+  <si>
+    <t>Banaan</t>
+  </si>
+  <si>
+    <t>Citroen</t>
+  </si>
+  <si>
+    <t>Bosvruchten</t>
+  </si>
+  <si>
+    <t>Caramel</t>
+  </si>
+  <si>
+    <t>Framboos</t>
+  </si>
+  <si>
+    <t>Meloen</t>
+  </si>
+  <si>
+    <t>Stracciatella</t>
+  </si>
+  <si>
+    <t>Yoghurt</t>
+  </si>
+  <si>
+    <t>Stroopwafel</t>
+  </si>
+  <si>
+    <t>Tiramisu</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>Cocos</t>
+  </si>
+  <si>
+    <t>Hazelnoot</t>
+  </si>
+  <si>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>Ananas</t>
+  </si>
+  <si>
+    <t>Kaneel</t>
+  </si>
+  <si>
+    <t>Peer</t>
+  </si>
+  <si>
+    <t>Boerenroom</t>
+  </si>
+  <si>
+    <t>Pistache</t>
+  </si>
+  <si>
+    <t>Watermeloen</t>
+  </si>
+  <si>
+    <t>BoerenJongens</t>
+  </si>
+  <si>
+    <t>Rum</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -39,13 +135,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,14 +176,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{E47E8FBF-2C6E-4A4D-AD13-C0D01B52AF82}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,13 +523,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98237421-3655-4B9C-8E78-3AD511A21A7D}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>